--- a/CS3343_ActivityLog_TimeSheet_Project_2021.xlsx
+++ b/CS3343_ActivityLog_TimeSheet_Project_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\城大\课程\Year 3 Sem A\CS3343\CS3343_Group6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB4E51F-CC91-4107-91C7-1B2DC079F12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17A03A1-254E-4157-80C5-4A94AE155857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group Contribution Log" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>Course</t>
   </si>
@@ -182,18 +182,58 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>Determine the topic of metro route planning.</t>
+    <t>XU Rui</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>XU Jiakai, XU Rui</t>
-  </si>
-  <si>
-    <t>Construct a rough structure of the system.</t>
+    <t>Construct outline of the system.</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>XU Rui</t>
+    <t>HUANG Yuqin, XU Jiakai</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm module development (Structure).</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUANG Yuqin, LIU Wei, WANG Zhixuan, XU Jiakai, ZHANG Xun</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI module development; Testing cases; Documentation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm module development (Algorithm); Testing cases; UI Development</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm module development (Algorithm); UI module development</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Determine the topic of metro route planning; Build development platform.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm module development (Algorithm); UI module development; Testing cases; Documentation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug fixing; Documentation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testing cases; Bug fixing; Documentation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Review</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
@@ -1174,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1267,7 @@
       </c>
       <c r="B6" s="17">
         <f>COUNTIF(A10:A17,"&gt;0")</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
@@ -1306,7 +1346,9 @@
       <c r="V9" s="5"/>
     </row>
     <row r="10" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="48">
+        <v>56195499</v>
+      </c>
       <c r="B10" s="52" t="s">
         <v>38</v>
       </c>
@@ -1316,20 +1358,42 @@
       <c r="D10" s="7">
         <v>3</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="7">
+        <v>3</v>
+      </c>
+      <c r="K10" s="7">
+        <v>2</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>6</v>
+      </c>
+      <c r="N10" s="9">
+        <v>2</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4</v>
+      </c>
       <c r="P10" s="27">
         <f>SUM(C10:O10)</f>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="22" t="str">
         <f t="shared" ref="Q10:Q15" si="0">B10</f>
@@ -1337,22 +1401,24 @@
       </c>
       <c r="R10" s="23">
         <f>(P10/$P$18*$B$6)</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S10" s="33">
         <f t="shared" ref="S10:S15" si="1">R10/$R$18</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="T10" s="23">
         <v>80</v>
       </c>
       <c r="U10" s="30">
         <f>S10*T10</f>
-        <v>26.666666666666664</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="48">
+        <v>56198489</v>
+      </c>
       <c r="B11" s="52" t="s">
         <v>39</v>
       </c>
@@ -1362,20 +1428,42 @@
       <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>5</v>
+      </c>
+      <c r="K11" s="7">
+        <v>3</v>
+      </c>
+      <c r="L11" s="7">
+        <v>5</v>
+      </c>
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>6</v>
+      </c>
       <c r="P11" s="27">
         <f t="shared" ref="P11:P15" si="2">SUM(C11:O11)</f>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1383,22 +1471,24 @@
       </c>
       <c r="R11" s="23">
         <f>P11/$P$18*$B$6</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S11" s="33">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="T11" s="23">
         <v>80</v>
       </c>
       <c r="U11" s="30">
         <f t="shared" ref="U11:U15" si="3">S11*T11</f>
-        <v>26.666666666666664</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="48">
+        <v>56198557</v>
+      </c>
       <c r="B12" s="52" t="s">
         <v>40</v>
       </c>
@@ -1408,20 +1498,42 @@
       <c r="D12" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>5</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>4</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="9">
+        <v>4</v>
+      </c>
+      <c r="O12" s="9">
+        <v>4</v>
+      </c>
       <c r="P12" s="27">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1429,22 +1541,24 @@
       </c>
       <c r="R12" s="23">
         <f>P12/$P$18*$B$6</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S12" s="33">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="T12" s="23">
         <v>80</v>
       </c>
       <c r="U12" s="30">
         <f t="shared" si="3"/>
-        <v>26.666666666666664</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="48">
+        <v>56197616</v>
+      </c>
       <c r="B13" s="52" t="s">
         <v>41</v>
       </c>
@@ -1454,20 +1568,42 @@
       <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="7">
+        <v>2</v>
+      </c>
+      <c r="L13" s="7">
+        <v>5</v>
+      </c>
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="9">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>3</v>
+      </c>
       <c r="P13" s="27">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1475,18 +1611,18 @@
       </c>
       <c r="R13" s="23">
         <f>P13/$P$18*$B$6</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S13" s="33">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="T13" s="23">
         <v>80</v>
       </c>
       <c r="U13" s="30">
         <f t="shared" si="3"/>
-        <v>26.666666666666664</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
@@ -1508,18 +1644,36 @@
       <c r="F14" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>4</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="7">
+        <v>6</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>5</v>
+      </c>
+      <c r="N14" s="9">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>4</v>
+      </c>
       <c r="P14" s="27">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1527,7 +1681,7 @@
       </c>
       <c r="R14" s="23">
         <f>P14/$P$18*$B$6</f>
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="S14" s="33">
         <f t="shared" si="1"/>
@@ -1542,7 +1696,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="48">
+        <v>56198705</v>
+      </c>
       <c r="B15" s="52" t="s">
         <v>43</v>
       </c>
@@ -1552,20 +1708,42 @@
       <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>6</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="7">
+        <v>4</v>
+      </c>
+      <c r="L15" s="7">
+        <v>6</v>
+      </c>
+      <c r="M15" s="7">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0</v>
+      </c>
+      <c r="O15" s="9">
+        <v>4</v>
+      </c>
       <c r="P15" s="27">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="22" t="str">
         <f t="shared" si="0"/>
@@ -1573,18 +1751,18 @@
       </c>
       <c r="R15" s="23">
         <f>P15/$P$18*$B$6</f>
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="S15" s="33">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="T15" s="23">
         <v>80</v>
       </c>
       <c r="U15" s="30">
         <f t="shared" si="3"/>
-        <v>26.666666666666664</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.25">
@@ -1651,61 +1829,61 @@
       </c>
       <c r="F18" s="37">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="G18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N18" s="37">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O18" s="38">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P18" s="39">
         <f>SUM(C18:O18)</f>
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="17" t="s">
         <v>25</v>
       </c>
       <c r="R18" s="19">
         <f>MAX(R10:R17)</f>
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="T18" s="32" t="s">
         <v>28</v>
       </c>
       <c r="U18" s="18">
         <f>AVERAGE(U10:U17)</f>
-        <v>35.55555555555555</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -1724,7 +1902,7 @@
       </c>
       <c r="U20" s="18">
         <f>MIN(U10:U17)</f>
-        <v>26.666666666666664</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1743,8 +1921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.33203125" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1792,10 +1970,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,74 +1981,110 @@
         <v>5</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
+      <c r="B6" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
+      <c r="B7" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
+      <c r="B8" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
+      <c r="B9" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
+      <c r="B10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
+      <c r="B12" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
+      <c r="B13" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="14" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="43"/>
+      <c r="B14" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:3" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
